--- a/data/RawData/ObsData/2001-2009/01-10-2003.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-10-2003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4478E48E-5A2D-4BB4-8756-970DDA08BB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C142701A-960C-41C5-8985-D8A8F5C60340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="964">
   <si>
     <t>Emmen</t>
   </si>
@@ -1614,22 +1614,13 @@
     <t>OL7</t>
   </si>
   <si>
-    <t>S12</t>
-  </si>
-  <si>
     <t>01/03</t>
   </si>
   <si>
-    <t>S01</t>
-  </si>
-  <si>
     <t>SD4</t>
   </si>
   <si>
     <t>AT5</t>
-  </si>
-  <si>
-    <t>S02</t>
   </si>
   <si>
     <t>Seattle</t>
@@ -3898,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5364,16 +5355,16 @@
       <c r="G45" s="2"/>
       <c r="H45" s="9"/>
       <c r="I45" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>6</v>
@@ -5621,7 +5612,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="6"/>
       <c r="I54" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>190</v>
@@ -6879,13 +6870,13 @@
     <row r="92" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>309</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>6</v>
@@ -6969,7 +6960,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="6"/>
       <c r="I95" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>312</v>
@@ -7084,7 +7075,7 @@
     <row r="99" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -7199,7 +7190,7 @@
     </row>
     <row r="103" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>337</v>
@@ -8809,13 +8800,13 @@
       <c r="H155" s="3"/>
       <c r="I155" s="2"/>
       <c r="J155" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>499</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>5</v>
@@ -8889,7 +8880,7 @@
       <c r="G158" s="6"/>
       <c r="H158" s="3"/>
       <c r="I158" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>501</v>
@@ -8934,7 +8925,7 @@
         <v>409</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>37</v>
@@ -9004,13 +8995,13 @@
     <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>5</v>
@@ -9187,7 +9178,7 @@
     </row>
     <row r="168" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="5"/>
@@ -9206,7 +9197,7 @@
     </row>
     <row r="169" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>508</v>
@@ -9221,12 +9212,12 @@
         <v>5</v>
       </c>
       <c r="F169" s="24" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="3"/>
       <c r="I169" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="J169" s="1"/>
       <c r="K169" s="5"/>
@@ -9237,7 +9228,7 @@
     </row>
     <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>509</v>
@@ -9252,21 +9243,21 @@
         <v>6</v>
       </c>
       <c r="F170" s="17" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="3"/>
       <c r="I170" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>6</v>
@@ -9281,13 +9272,13 @@
     <row r="171" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>510</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>5</v>
@@ -9299,13 +9290,13 @@
       <c r="H171" s="3"/>
       <c r="I171" s="5"/>
       <c r="J171" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>193</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>5</v>
@@ -9314,19 +9305,19 @@
         <v>71</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>5</v>
@@ -9340,13 +9331,13 @@
       <c r="H172" s="3"/>
       <c r="I172" s="5"/>
       <c r="J172" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>6</v>
@@ -9359,7 +9350,7 @@
     <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -9371,13 +9362,13 @@
       <c r="H173" s="3"/>
       <c r="I173" s="2"/>
       <c r="J173" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>81</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>6</v>
@@ -9390,13 +9381,13 @@
     <row r="174" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>6</v>
@@ -9408,13 +9399,13 @@
       <c r="H174" s="3"/>
       <c r="I174" s="5"/>
       <c r="J174" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>5</v>
@@ -9427,7 +9418,7 @@
     <row r="175" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -9439,7 +9430,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="2"/>
       <c r="J175" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>15</v>
@@ -9454,7 +9445,7 @@
     <row r="176" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -9466,7 +9457,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="10"/>
       <c r="J176" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K176" s="10" t="s">
         <v>16</v>
@@ -9481,13 +9472,13 @@
     <row r="177" spans="1:15" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>6</v>
@@ -9499,7 +9490,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="5"/>
       <c r="J177" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K177" s="5"/>
       <c r="L177" s="5"/>
@@ -9512,7 +9503,7 @@
     <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -9524,7 +9515,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="5"/>
       <c r="J178" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -9537,7 +9528,7 @@
     <row r="179" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -9549,7 +9540,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="2"/>
       <c r="J179" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
@@ -9570,7 +9561,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="5"/>
       <c r="J180" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
@@ -9582,7 +9573,7 @@
     </row>
     <row r="181" spans="1:15" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="5"/>
@@ -9650,10 +9641,10 @@
       </c>
       <c r="H183" s="3"/>
       <c r="I183" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>193</v>
@@ -9675,7 +9666,7 @@
         <v>516</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>516</v>
@@ -9690,13 +9681,13 @@
       <c r="H184" s="3"/>
       <c r="I184" s="5"/>
       <c r="J184" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>5</v>
@@ -9711,13 +9702,13 @@
     <row r="185" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>517</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>5</v>
@@ -9729,13 +9720,13 @@
       <c r="H185" s="3"/>
       <c r="I185" s="5"/>
       <c r="J185" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="K185" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>5</v>
@@ -9748,13 +9739,13 @@
     <row r="186" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>5</v>
@@ -9766,13 +9757,13 @@
       <c r="H186" s="3"/>
       <c r="I186" s="5"/>
       <c r="J186" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>6</v>
@@ -9803,13 +9794,13 @@
       <c r="H187" s="3"/>
       <c r="I187" s="2"/>
       <c r="J187" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>6</v>
@@ -9840,13 +9831,13 @@
       <c r="H188" s="3"/>
       <c r="I188" s="2"/>
       <c r="J188" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="K188" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>6</v>
@@ -9886,7 +9877,7 @@
     <row r="190" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -9897,7 +9888,7 @@
       <c r="G190" s="5"/>
       <c r="H190" s="3"/>
       <c r="I190" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -9920,22 +9911,22 @@
       <c r="G191" s="1"/>
       <c r="H191" s="3"/>
       <c r="I191" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>231</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N191" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="O191" s="5"/>
     </row>
@@ -9949,16 +9940,16 @@
       <c r="G192" s="6"/>
       <c r="H192" s="3"/>
       <c r="I192" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>348</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>5</v>
@@ -9993,19 +9984,19 @@
       <c r="H193" s="3"/>
       <c r="I193" s="5"/>
       <c r="J193" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N193" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="O193" s="27">
         <v>4244</v>
@@ -10013,7 +10004,7 @@
     </row>
     <row r="194" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>474</v>
@@ -10021,7 +10012,9 @@
       <c r="C194" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D194" s="1"/>
+      <c r="D194" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E194" s="1" t="s">
         <v>6</v>
       </c>
@@ -10034,13 +10027,13 @@
       <c r="H194" s="3"/>
       <c r="I194" s="5"/>
       <c r="J194" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K194" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>6</v>
@@ -10053,31 +10046,31 @@
     <row r="195" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D195" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="3"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>500</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>6</v>
@@ -10090,13 +10083,13 @@
     <row r="196" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>5</v>
@@ -10108,32 +10101,32 @@
       <c r="H196" s="3"/>
       <c r="I196" s="5"/>
       <c r="J196" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>397</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="O196" s="5"/>
     </row>
     <row r="197" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>5</v>
@@ -10145,19 +10138,19 @@
       <c r="H197" s="3"/>
       <c r="I197" s="5"/>
       <c r="J197" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>196</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="O197" s="5"/>
     </row>
@@ -10172,34 +10165,34 @@
       <c r="H198" s="3"/>
       <c r="I198" s="5"/>
       <c r="J198" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>227</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M198" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="O198" s="5"/>
     </row>
     <row r="199" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>423</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>5</v>
@@ -10211,32 +10204,32 @@
       <c r="H199" s="3"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K199" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N199" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O199" s="5"/>
     </row>
     <row r="200" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
       <c r="B200" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>5</v>
@@ -10259,13 +10252,13 @@
     <row r="201" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>5</v>
@@ -10278,10 +10271,10 @@
       </c>
       <c r="H201" s="3"/>
       <c r="I201" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K201" s="1" t="s">
         <v>91</v>
@@ -10300,13 +10293,13 @@
     <row r="202" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>5</v>
@@ -10317,22 +10310,22 @@
       <c r="G202" s="1"/>
       <c r="H202" s="3"/>
       <c r="I202" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K202" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L202" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="M202" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N202" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="O202" s="5"/>
     </row>
@@ -10347,13 +10340,13 @@
       <c r="H203" s="3"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K203" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>6</v>
@@ -10365,7 +10358,7 @@
     </row>
     <row r="204" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="5"/>
@@ -10376,52 +10369,52 @@
       <c r="H204" s="3"/>
       <c r="I204" s="5"/>
       <c r="J204" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K204" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="O204" s="5"/>
     </row>
     <row r="205" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G205" s="5"/>
       <c r="H205" s="3"/>
       <c r="I205" s="5"/>
       <c r="J205" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K205" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>5</v>
@@ -10433,34 +10426,34 @@
     </row>
     <row r="206" spans="1:15" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G206" s="2"/>
       <c r="H206" s="3"/>
       <c r="I206" s="5"/>
       <c r="J206" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M206" s="1" t="s">
         <v>5</v>
@@ -10473,31 +10466,31 @@
     <row r="207" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>500</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G207" s="2"/>
       <c r="H207" s="3"/>
       <c r="I207" s="2"/>
       <c r="J207" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>5</v>
@@ -10510,31 +10503,31 @@
     <row r="208" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="19" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C208" s="19" t="s">
         <v>225</v>
       </c>
       <c r="D208" s="19" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E208" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G208" s="2"/>
       <c r="H208" s="3"/>
       <c r="I208" s="2"/>
       <c r="J208" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K208" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M208" s="1" t="s">
         <v>6</v>
@@ -10547,31 +10540,31 @@
     <row r="209" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>499</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G209" s="5"/>
       <c r="H209" s="3"/>
       <c r="I209" s="1"/>
       <c r="J209" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K209" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M209" s="2" t="s">
         <v>6</v>
@@ -10584,7 +10577,7 @@
     <row r="210" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
@@ -10605,7 +10598,7 @@
     <row r="211" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
       <c r="B211" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -10642,7 +10635,7 @@
     </row>
     <row r="213" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="5"/>
@@ -10661,16 +10654,16 @@
     </row>
     <row r="214" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>6</v>
@@ -10681,7 +10674,7 @@
       <c r="G214" s="6"/>
       <c r="H214" s="3"/>
       <c r="I214" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -10692,16 +10685,16 @@
     </row>
     <row r="215" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>5</v>
@@ -10712,22 +10705,22 @@
       <c r="G215" s="6"/>
       <c r="H215" s="3"/>
       <c r="I215" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="K215" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="J215" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="K215" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="L215" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O215" s="5"/>
     </row>
@@ -10741,22 +10734,22 @@
       <c r="G216" s="8"/>
       <c r="H216" s="3"/>
       <c r="I216" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J216" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="J216" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="O216" s="2"/>
     </row>
@@ -10771,25 +10764,25 @@
       <c r="H217" s="8"/>
       <c r="I217" s="5"/>
       <c r="J217" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N217" s="24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O217" s="5"/>
     </row>
     <row r="218" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -10800,19 +10793,19 @@
       <c r="H218" s="6"/>
       <c r="I218" s="5"/>
       <c r="J218" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>266</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N218" s="24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O218" s="5"/>
     </row>
@@ -10841,13 +10834,13 @@
       <c r="H219" s="6"/>
       <c r="I219" s="5"/>
       <c r="J219" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>254</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>5</v>
@@ -10859,22 +10852,22 @@
     </row>
     <row r="220" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G220" s="5"/>
       <c r="H220" s="3"/>
@@ -10888,22 +10881,22 @@
     </row>
     <row r="221" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G221" s="5"/>
       <c r="H221" s="21"/>
@@ -10918,19 +10911,19 @@
     <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
       <c r="B222" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G222" s="5"/>
       <c r="H222" s="3"/>
@@ -10945,13 +10938,13 @@
     <row r="223" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
       <c r="B223" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>6</v>
@@ -10962,7 +10955,7 @@
       <c r="G223" s="5"/>
       <c r="H223" s="6"/>
       <c r="I223" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J223" s="1"/>
       <c r="K223" s="5"/>
@@ -10974,13 +10967,13 @@
     <row r="224" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>6</v>
@@ -11015,13 +11008,13 @@
     <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>520</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>5</v>
@@ -11032,35 +11025,35 @@
       <c r="G225" s="1"/>
       <c r="H225" s="8"/>
       <c r="I225" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K225" s="1" t="s">
         <v>304</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N225" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="O225" s="5"/>
     </row>
     <row r="226" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
       <c r="B226" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>6</v>
@@ -11072,13 +11065,13 @@
       <c r="H226" s="8"/>
       <c r="I226" s="5"/>
       <c r="J226" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="K226" s="1" t="s">
         <v>489</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>5</v>
@@ -11091,13 +11084,13 @@
     <row r="227" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>5</v>
@@ -11109,112 +11102,112 @@
       <c r="H227" s="8"/>
       <c r="I227" s="5"/>
       <c r="J227" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="K227" s="1" t="s">
         <v>78</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O227" s="5"/>
     </row>
     <row r="228" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="8"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O228" s="5"/>
     </row>
     <row r="229" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="30" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D229" s="30" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G229" s="5"/>
       <c r="H229" s="8"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="K229" s="1" t="s">
         <v>322</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N229" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O229" s="1"/>
     </row>
     <row r="230" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G230" s="1"/>
       <c r="H230" s="8"/>
@@ -11229,13 +11222,13 @@
     <row r="231" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>6</v>
@@ -11256,13 +11249,13 @@
     <row r="232" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="B232" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>5</v>
@@ -11273,7 +11266,7 @@
       <c r="G232" s="5"/>
       <c r="H232" s="8"/>
       <c r="I232" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -11285,13 +11278,13 @@
     <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>6</v>
@@ -11302,29 +11295,29 @@
       <c r="G233" s="2"/>
       <c r="H233" s="8"/>
       <c r="I233" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="K233" s="1" t="s">
         <v>110</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O233" s="8"/>
     </row>
     <row r="234" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
       <c r="B234" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
@@ -11336,26 +11329,26 @@
       <c r="H234" s="8"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="K234" s="1" t="s">
         <v>116</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="O234" s="6"/>
     </row>
     <row r="235" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
       <c r="B235" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
@@ -11367,19 +11360,19 @@
       <c r="H235" s="8"/>
       <c r="I235" s="5"/>
       <c r="J235" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K235" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="O235" s="8"/>
     </row>
@@ -11402,10 +11395,10 @@
     </row>
     <row r="237" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>351</v>
@@ -11422,7 +11415,7 @@
       <c r="G237" s="5"/>
       <c r="H237" s="8"/>
       <c r="I237" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J237" s="1"/>
       <c r="K237" s="5"/>
@@ -11434,13 +11427,13 @@
     <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>5</v>
@@ -11451,10 +11444,10 @@
       <c r="G238" s="2"/>
       <c r="H238" s="8"/>
       <c r="I238" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="K238" s="1" t="s">
         <v>81</v>
@@ -11466,7 +11459,7 @@
         <v>5</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="O238" s="4">
         <v>4461</v>
@@ -11475,13 +11468,13 @@
     <row r="239" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>5</v>
@@ -11493,19 +11486,19 @@
       <c r="H239" s="8"/>
       <c r="I239" s="5"/>
       <c r="J239" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="K239" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="O239" s="4">
         <v>4398</v>
@@ -11514,13 +11507,13 @@
     <row r="240" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
       <c r="B240" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>5</v>
@@ -11534,13 +11527,13 @@
       <c r="H240" s="8"/>
       <c r="I240" s="5"/>
       <c r="J240" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="K240" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="M240" s="1" t="s">
         <v>5</v>
@@ -11553,31 +11546,31 @@
     <row r="241" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>352</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G241" s="5"/>
       <c r="H241" s="6"/>
       <c r="I241" s="5"/>
       <c r="J241" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>5</v>
@@ -11590,19 +11583,19 @@
     <row r="242" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G242" s="4">
         <v>4488</v>
@@ -11610,32 +11603,32 @@
       <c r="H242" s="8"/>
       <c r="I242" s="5"/>
       <c r="J242" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="O242" s="5"/>
     </row>
     <row r="243" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
       <c r="B243" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>6</v>
@@ -11647,32 +11640,32 @@
       <c r="H243" s="8"/>
       <c r="I243" s="2"/>
       <c r="J243" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="K243" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="M243" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N243" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="O243" s="5"/>
     </row>
     <row r="244" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>5</v>
@@ -11684,32 +11677,32 @@
       <c r="H244" s="8"/>
       <c r="I244" s="5"/>
       <c r="J244" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="K244" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N244" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="O244" s="2"/>
     </row>
     <row r="245" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>6</v>
@@ -11721,38 +11714,38 @@
       <c r="H245" s="8"/>
       <c r="I245" s="5"/>
       <c r="J245" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K245" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="M245" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="O245" s="5"/>
     </row>
     <row r="246" spans="1:15" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
       <c r="B246" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G246" s="5"/>
       <c r="H246" s="8"/>
@@ -11767,19 +11760,19 @@
     <row r="247" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="8"/>
@@ -11794,13 +11787,13 @@
     <row r="248" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>6</v>
@@ -11811,7 +11804,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="8"/>
       <c r="I248" s="21" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J248" s="1"/>
       <c r="K248" s="5"/>
@@ -11823,27 +11816,27 @@
     <row r="249" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G249" s="2"/>
       <c r="H249" s="8"/>
       <c r="I249" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="K249" s="1" t="s">
         <v>193</v>
@@ -11864,13 +11857,13 @@
     <row r="250" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>352</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>5</v>
@@ -11881,53 +11874,53 @@
       <c r="G250" s="1"/>
       <c r="H250" s="8"/>
       <c r="I250" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K250" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="O250" s="1"/>
     </row>
     <row r="251" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="30" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D251" s="30" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G251" s="1"/>
       <c r="H251" s="8"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="K251" s="1" t="s">
         <v>193</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M251" s="1" t="s">
         <v>5</v>
@@ -11940,44 +11933,44 @@
     <row r="252" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
       <c r="B252" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G252" s="5"/>
       <c r="H252" s="8"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K252" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O252" s="1"/>
     </row>
     <row r="253" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -11989,26 +11982,26 @@
       <c r="H253" s="8"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="K253" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O253" s="1"/>
     </row>
     <row r="254" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
@@ -12020,26 +12013,26 @@
       <c r="H254" s="8"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O254" s="2"/>
     </row>
     <row r="255" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
@@ -12051,26 +12044,26 @@
       <c r="H255" s="8"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="K255" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O255" s="1"/>
     </row>
     <row r="256" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
       <c r="B256" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
@@ -12082,19 +12075,19 @@
       <c r="H256" s="8"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="K256" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O256" s="1"/>
     </row>
@@ -12109,13 +12102,13 @@
       <c r="H257" s="8"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="K257" s="1" t="s">
         <v>81</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>5</v>
@@ -12127,7 +12120,7 @@
     </row>
     <row r="258" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -12146,38 +12139,38 @@
     </row>
     <row r="259" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G259" s="4">
         <v>4140</v>
       </c>
       <c r="H259" s="8"/>
       <c r="I259" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>81</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M259" s="1" t="s">
         <v>6</v>
@@ -12187,31 +12180,31 @@
     </row>
     <row r="260" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G260" s="1"/>
       <c r="H260" s="37"/>
       <c r="I260" s="5"/>
       <c r="J260" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="M260" s="1" t="s">
         <v>5</v>
@@ -12224,74 +12217,74 @@
     <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>397</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G261" s="1"/>
       <c r="H261" s="8"/>
       <c r="I261" s="5"/>
       <c r="J261" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N261" s="24" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="O261" s="5"/>
     </row>
     <row r="262" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G262" s="1"/>
       <c r="H262" s="6"/>
       <c r="I262" s="5"/>
       <c r="J262" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="M262" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="O262" s="5"/>
     </row>
@@ -12306,13 +12299,13 @@
       <c r="H263" s="8"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K263" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="M263" s="1" t="s">
         <v>6</v>
@@ -12333,7 +12326,7 @@
       <c r="H264" s="8"/>
       <c r="I264" s="2"/>
       <c r="J264" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
@@ -12345,16 +12338,16 @@
     </row>
     <row r="265" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>6</v>
@@ -12366,13 +12359,13 @@
       <c r="H265" s="8"/>
       <c r="I265" s="2"/>
       <c r="J265" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="M265" s="1" t="s">
         <v>5</v>
@@ -12384,16 +12377,16 @@
     </row>
     <row r="266" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>6</v>
@@ -12405,7 +12398,7 @@
       <c r="H266" s="8"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K266" s="1"/>
       <c r="L266" s="2"/>
@@ -12418,13 +12411,13 @@
     <row r="267" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
       <c r="B267" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>5</v>
@@ -12452,22 +12445,22 @@
       <c r="G268" s="9"/>
       <c r="H268" s="9"/>
       <c r="I268" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K268" s="1" t="s">
         <v>196</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="M268" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N268" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="O268" s="1">
         <v>4367</v>
@@ -12513,19 +12506,19 @@
       <c r="H270" s="8"/>
       <c r="I270" s="2"/>
       <c r="J270" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="M270" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="O270" s="1">
         <v>4727</v>
@@ -12545,22 +12538,22 @@
         <v>497</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O271" s="2"/>
     </row>
     <row r="272" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -12601,7 +12594,7 @@
       </c>
       <c r="H273" s="9"/>
       <c r="I273" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J273" s="5"/>
       <c r="K273" s="5"/>
@@ -12612,94 +12605,94 @@
     </row>
     <row r="274" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B274" s="30" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D274" s="30" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G274" s="5"/>
       <c r="H274" s="9"/>
       <c r="I274" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N274" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O274" s="2"/>
     </row>
     <row r="275" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B275" s="30" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D275" s="30" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G275" s="2"/>
       <c r="H275" s="6"/>
       <c r="I275" s="2"/>
       <c r="J275" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="K275" s="1" t="s">
         <v>152</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N275" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="O275" s="2"/>
     </row>
     <row r="276" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
       <c r="B276" s="30" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D276" s="30" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>5</v>
@@ -12720,13 +12713,13 @@
     <row r="277" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="30" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D277" s="30" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>5</v>
@@ -12737,7 +12730,7 @@
       <c r="G277" s="5"/>
       <c r="H277" s="31"/>
       <c r="I277" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J277" s="10"/>
       <c r="K277" s="10"/>
@@ -12749,13 +12742,13 @@
     <row r="278" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
       <c r="B278" s="30" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="30" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>6</v>
@@ -12790,13 +12783,13 @@
     <row r="279" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
       <c r="B279" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>5</v>
@@ -12807,57 +12800,57 @@
       <c r="G279" s="5"/>
       <c r="H279" s="8"/>
       <c r="I279" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>113</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="M279" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N279" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O279" s="1"/>
     </row>
     <row r="280" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
       <c r="B280" s="30" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D280" s="30" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G280" s="4">
         <v>4014</v>
       </c>
       <c r="H280" s="8"/>
       <c r="I280" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="K280" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="M280" s="1" t="s">
         <v>5</v>
@@ -12870,31 +12863,31 @@
     <row r="281" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="30" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D281" s="30" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="8"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>5</v>
@@ -12907,31 +12900,31 @@
     <row r="282" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F282" s="17" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G282" s="2"/>
       <c r="H282" s="8"/>
       <c r="I282" s="5"/>
       <c r="J282" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="K282" s="1" t="s">
         <v>104</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>5</v>
@@ -12944,31 +12937,31 @@
     <row r="283" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A283" s="19"/>
       <c r="B283" s="19" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C283" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D283" s="19" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E283" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F283" s="20" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G283" s="19"/>
       <c r="H283" s="25"/>
       <c r="I283" s="5"/>
       <c r="J283" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="K283" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="M283" s="1" t="s">
         <v>5</v>
@@ -12981,19 +12974,19 @@
     <row r="284" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="30" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D284" s="30" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G284" s="5"/>
       <c r="H284" s="25"/>
@@ -13008,24 +13001,24 @@
     <row r="285" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
       <c r="B285" s="30" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D285" s="30" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G285" s="5"/>
       <c r="H285" s="25"/>
       <c r="I285" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J285" s="1"/>
       <c r="K285" s="5"/>
@@ -13037,33 +13030,33 @@
     <row r="286" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
       <c r="B286" s="30" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D286" s="30" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G286" s="5"/>
       <c r="H286" s="25"/>
       <c r="I286" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="K286" s="1" t="s">
         <v>276</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="M286" s="1" t="s">
         <v>5</v>
@@ -13076,161 +13069,161 @@
     <row r="287" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
       <c r="B287" s="30" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="30" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F287" s="24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G287" s="5"/>
       <c r="H287" s="25"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="K287" s="1" t="s">
         <v>266</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="M287" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N287" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O287" s="2"/>
     </row>
     <row r="288" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D288" s="30" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F288" s="24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G288" s="5"/>
       <c r="H288" s="25"/>
       <c r="I288" s="5"/>
       <c r="J288" s="19" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="K288" s="19" t="s">
         <v>213</v>
       </c>
       <c r="L288" s="19" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="M288" s="19" t="s">
         <v>5</v>
       </c>
       <c r="N288" s="20" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O288" s="5"/>
     </row>
     <row r="289" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
       <c r="B289" s="30" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D289" s="30" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F289" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G289" s="5"/>
       <c r="H289" s="31"/>
       <c r="I289" s="5"/>
       <c r="J289" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="M289" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N289" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O289" s="19"/>
     </row>
     <row r="290" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="30" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D290" s="30" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G290" s="5"/>
       <c r="H290" s="33"/>
       <c r="I290" s="5"/>
       <c r="J290" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="K290" s="1" t="s">
         <v>274</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="M290" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O290" s="5"/>
     </row>
     <row r="291" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>5</v>
@@ -13242,32 +13235,32 @@
       <c r="H291" s="25"/>
       <c r="I291" s="5"/>
       <c r="J291" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="M291" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O291" s="5"/>
     </row>
     <row r="292" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>6</v>
@@ -13279,19 +13272,19 @@
       <c r="H292" s="25"/>
       <c r="I292" s="5"/>
       <c r="J292" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>269</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="M292" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O292" s="5"/>
     </row>
@@ -13306,25 +13299,25 @@
       <c r="H293" s="25"/>
       <c r="I293" s="5"/>
       <c r="J293" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>251</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="M293" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N293" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O293" s="5"/>
     </row>
     <row r="294" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -13343,22 +13336,22 @@
     </row>
     <row r="295" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>397</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G295" s="4">
         <v>4348</v>
@@ -13375,19 +13368,19 @@
     <row r="296" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G296" s="5"/>
       <c r="H296" s="25"/>
@@ -13402,39 +13395,39 @@
     <row r="297" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>499</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G297" s="1"/>
       <c r="H297" s="25"/>
       <c r="I297" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K297" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="M297" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="O297" s="4">
         <v>4972</v>
@@ -13443,70 +13436,70 @@
     <row r="298" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
       <c r="B298" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G298" s="5"/>
       <c r="H298" s="25"/>
       <c r="I298" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>397</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="M298" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="O298" s="2"/>
     </row>
     <row r="299" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
       <c r="B299" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G299" s="5"/>
       <c r="H299" s="25"/>
       <c r="I299" s="2"/>
       <c r="J299" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="M299" s="1" t="s">
         <v>5</v>
@@ -13519,31 +13512,31 @@
     <row r="300" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G300" s="1"/>
       <c r="H300" s="33"/>
       <c r="I300" s="5"/>
       <c r="J300" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="K300" s="1" t="s">
         <v>499</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="M300" s="1" t="s">
         <v>5</v>
@@ -13556,13 +13549,13 @@
     <row r="301" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>5</v>
@@ -13574,13 +13567,13 @@
       <c r="H301" s="31"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="M301" s="1" t="s">
         <v>5</v>
@@ -13593,13 +13586,13 @@
     <row r="302" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
       <c r="B302" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>6</v>
@@ -13611,32 +13604,32 @@
       <c r="H302" s="8"/>
       <c r="I302" s="5"/>
       <c r="J302" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="K302" s="5"/>
       <c r="L302" s="5"/>
       <c r="M302" s="5"/>
       <c r="N302" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="O302" s="5"/>
     </row>
     <row r="303" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
       <c r="B303" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F303" s="7" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G303" s="5"/>
       <c r="H303" s="8"/>
@@ -13651,58 +13644,58 @@
     <row r="304" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
       <c r="B304" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G304" s="5"/>
       <c r="H304" s="25"/>
       <c r="I304" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="M304" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N304" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="O304" s="1"/>
     </row>
     <row r="305" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
       <c r="B305" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F305" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G305" s="5"/>
       <c r="H305" s="8"/>
@@ -13729,25 +13722,25 @@
       <c r="H306" s="25"/>
       <c r="I306" s="5"/>
       <c r="J306" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="K306" s="1" t="s">
         <v>351</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="M306" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N306" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O306" s="5"/>
     </row>
     <row r="307" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B307" s="1"/>
       <c r="C307" s="5"/>
@@ -13758,32 +13751,32 @@
       <c r="H307" s="25"/>
       <c r="I307" s="5"/>
       <c r="J307" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="K307" s="1" t="s">
         <v>144</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="M307" s="5"/>
       <c r="N307" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O307" s="5"/>
     </row>
     <row r="308" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>5</v>
@@ -13797,69 +13790,69 @@
       <c r="H308" s="31"/>
       <c r="I308" s="5"/>
       <c r="J308" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="K308" s="1" t="s">
         <v>352</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="M308" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N308" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O308" s="5"/>
     </row>
     <row r="309" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
       <c r="B309" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G309" s="5"/>
       <c r="H309" s="33"/>
       <c r="I309" s="5"/>
       <c r="J309" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="K309" s="1" t="s">
         <v>239</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="M309" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N309" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O309" s="5"/>
     </row>
     <row r="310" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
       <c r="B310" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>6</v>
@@ -13880,13 +13873,13 @@
     <row r="311" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
       <c r="B311" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>5</v>
@@ -13897,7 +13890,7 @@
       <c r="G311" s="5"/>
       <c r="H311" s="25"/>
       <c r="I311" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J311" s="5"/>
       <c r="K311" s="5"/>
@@ -13909,13 +13902,13 @@
     <row r="312" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
       <c r="B312" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>5</v>
@@ -13926,35 +13919,35 @@
       <c r="G312" s="5"/>
       <c r="H312" s="25"/>
       <c r="I312" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="K312" s="1" t="s">
         <v>227</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="M312" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="O312" s="2"/>
     </row>
     <row r="313" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="5"/>
       <c r="B313" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>5</v>
@@ -13966,13 +13959,13 @@
       <c r="H313" s="25"/>
       <c r="I313" s="5"/>
       <c r="J313" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="M313" s="1" t="s">
         <v>5</v>
@@ -13985,13 +13978,13 @@
     <row r="314" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
       <c r="B314" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>5</v>
@@ -14003,13 +13996,13 @@
       <c r="H314" s="25"/>
       <c r="I314" s="5"/>
       <c r="J314" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="K314" s="1" t="s">
         <v>500</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="M314" s="1" t="s">
         <v>5</v>
@@ -14030,13 +14023,13 @@
       <c r="H315" s="8"/>
       <c r="I315" s="5"/>
       <c r="J315" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K315" s="1" t="s">
         <v>231</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="M315" s="1" t="s">
         <v>6</v>
@@ -14057,34 +14050,34 @@
       <c r="H316" s="8"/>
       <c r="I316" s="5"/>
       <c r="J316" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="K316" s="1" t="s">
         <v>348</v>
       </c>
       <c r="L316" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="M316" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N316" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="O316" s="5"/>
     </row>
     <row r="317" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>5</v>
@@ -14096,34 +14089,34 @@
       <c r="H317" s="25"/>
       <c r="I317" s="2"/>
       <c r="J317" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="K317" s="1" t="s">
         <v>225</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="M317" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N317" s="17" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="O317" s="2"/>
     </row>
     <row r="318" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>5</v>
@@ -14135,13 +14128,13 @@
       <c r="H318" s="25"/>
       <c r="I318" s="2"/>
       <c r="J318" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="K318" s="1" t="s">
         <v>196</v>
       </c>
       <c r="L318" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="M318" s="1" t="s">
         <v>6</v>
@@ -14154,13 +14147,13 @@
     <row r="319" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5"/>
       <c r="B319" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>5</v>
@@ -14172,13 +14165,13 @@
       <c r="H319" s="25"/>
       <c r="I319" s="5"/>
       <c r="J319" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="K319" s="1" t="s">
         <v>217</v>
       </c>
       <c r="L319" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="M319" s="1" t="s">
         <v>6</v>
@@ -14191,19 +14184,19 @@
     <row r="320" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="5"/>
       <c r="B320" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F320" s="24" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G320" s="6"/>
       <c r="H320" s="25"/>
@@ -14218,24 +14211,24 @@
     <row r="321" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="5"/>
       <c r="B321" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G321" s="6"/>
       <c r="H321" s="25"/>
       <c r="I321" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="J321" s="1"/>
       <c r="K321" s="5"/>
@@ -14247,13 +14240,13 @@
     <row r="322" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>5</v>
@@ -14264,16 +14257,16 @@
       <c r="G322" s="9"/>
       <c r="H322" s="25"/>
       <c r="I322" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="K322" s="1" t="s">
         <v>193</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="M322" s="1" t="s">
         <v>5</v>
@@ -14284,13 +14277,13 @@
     <row r="323" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>5</v>
@@ -14301,7 +14294,7 @@
       <c r="G323" s="9"/>
       <c r="H323" s="25"/>
       <c r="I323" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="J323" s="4">
         <v>621</v>
@@ -14323,13 +14316,13 @@
     <row r="324" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="5"/>
       <c r="B324" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>5</v>
@@ -14341,19 +14334,19 @@
       <c r="H324" s="8"/>
       <c r="I324" s="5"/>
       <c r="J324" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="K324" s="1" t="s">
         <v>81</v>
       </c>
       <c r="L324" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="M324" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N324" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O324" s="4">
         <v>4800</v>
@@ -14362,13 +14355,13 @@
     <row r="325" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="5"/>
       <c r="B325" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>5</v>
@@ -14380,19 +14373,19 @@
       <c r="H325" s="8"/>
       <c r="I325" s="5"/>
       <c r="J325" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="K325" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L325" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="M325" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N325" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O325" s="5"/>
     </row>
@@ -14407,19 +14400,19 @@
       <c r="H326" s="33"/>
       <c r="I326" s="2"/>
       <c r="J326" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="K326" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L326" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="M326" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O326" s="2"/>
     </row>
@@ -14434,19 +14427,19 @@
       <c r="H327" s="25"/>
       <c r="I327" s="5"/>
       <c r="J327" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="K327" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L327" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="M327" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N327" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O327" s="5"/>
     </row>
@@ -14467,13 +14460,13 @@
       <c r="L328" s="5"/>
       <c r="M328" s="5"/>
       <c r="N328" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O328" s="5"/>
     </row>
     <row r="329" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -14490,7 +14483,7 @@
       <c r="L329" s="5"/>
       <c r="M329" s="5"/>
       <c r="N329" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O329" s="5"/>
     </row>
@@ -14527,22 +14520,22 @@
     </row>
     <row r="331" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G331" s="5"/>
       <c r="H331" s="33"/>
@@ -14556,13 +14549,13 @@
     </row>
     <row r="332" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>5</v>
@@ -14583,13 +14576,13 @@
     <row r="333" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>6</v>
@@ -14600,7 +14593,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="6"/>
       <c r="I333" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J333" s="1"/>
       <c r="K333" s="2"/>
@@ -14612,19 +14605,19 @@
     <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G334" s="5"/>
       <c r="H334" s="6"/>
@@ -14632,7 +14625,7 @@
         <v>56</v>
       </c>
       <c r="J334" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="K334" s="1" t="s">
         <v>58</v>
@@ -14653,13 +14646,13 @@
     <row r="335" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A335" s="5"/>
       <c r="B335" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>5</v>
@@ -14670,16 +14663,16 @@
       <c r="G335" s="5"/>
       <c r="H335" s="6"/>
       <c r="I335" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="J335" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="K335" s="1" t="s">
         <v>81</v>
       </c>
       <c r="L335" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="M335" s="1" t="s">
         <v>5</v>
@@ -14699,22 +14692,22 @@
       <c r="G336" s="9"/>
       <c r="H336" s="8"/>
       <c r="I336" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J336" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="K336" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L336" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="M336" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N336" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="O336" s="5"/>
     </row>
@@ -14729,13 +14722,13 @@
       <c r="H337" s="8"/>
       <c r="I337" s="2"/>
       <c r="J337" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="K337" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L337" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="M337" s="1" t="s">
         <v>5</v>
@@ -14749,16 +14742,16 @@
     </row>
     <row r="338" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>6</v>
@@ -14770,34 +14763,34 @@
       <c r="H338" s="3"/>
       <c r="I338" s="5"/>
       <c r="J338" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="K338" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L338" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="M338" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N338" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="O338" s="5"/>
     </row>
     <row r="339" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>6</v>
@@ -14809,19 +14802,19 @@
       <c r="H339" s="3"/>
       <c r="I339" s="5"/>
       <c r="J339" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="K339" s="1" t="s">
         <v>193</v>
       </c>
       <c r="L339" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="M339" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N339" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="O339" s="4">
         <v>4432</v>
@@ -14830,50 +14823,50 @@
     <row r="340" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
       <c r="B340" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G340" s="6"/>
       <c r="H340" s="3"/>
       <c r="I340" s="2"/>
       <c r="J340" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="K340" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L340" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="M340" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N340" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="O340" s="2"/>
     </row>
     <row r="341" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>6</v>
@@ -14885,32 +14878,32 @@
       <c r="H341" s="3"/>
       <c r="I341" s="5"/>
       <c r="J341" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="K341" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L341" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="M341" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N341" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="O341" s="5"/>
     </row>
     <row r="342" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C342" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D342" s="10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E342" s="10" t="s">
         <v>6</v>
@@ -14922,32 +14915,32 @@
       <c r="H342" s="3"/>
       <c r="I342" s="5"/>
       <c r="J342" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="K342" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L342" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="M342" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N342" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="O342" s="5"/>
     </row>
     <row r="343" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>5</v>
@@ -14959,26 +14952,26 @@
       <c r="H343" s="3"/>
       <c r="I343" s="5"/>
       <c r="J343" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="K343" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L343" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="M343" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N343" s="7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="O343" s="5"/>
     </row>
     <row r="344" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A344" s="5"/>
       <c r="B344" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
@@ -14990,13 +14983,13 @@
       <c r="H344" s="3"/>
       <c r="I344" s="5"/>
       <c r="J344" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="K344" s="1" t="s">
         <v>81</v>
       </c>
       <c r="L344" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="M344" s="1" t="s">
         <v>6</v>
@@ -15009,7 +15002,7 @@
     <row r="345" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A345" s="5"/>
       <c r="B345" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C345" s="5"/>
       <c r="D345" s="10"/>
@@ -15021,13 +15014,13 @@
       <c r="H345" s="3"/>
       <c r="I345" s="5"/>
       <c r="J345" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="K345" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L345" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="M345" s="1" t="s">
         <v>6</v>
@@ -15048,25 +15041,25 @@
       <c r="H346" s="3"/>
       <c r="I346" s="2"/>
       <c r="J346" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="K346" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L346" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="M346" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N346" s="17" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="O346" s="2"/>
     </row>
     <row r="347" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B347" s="1"/>
       <c r="C347" s="5"/>
@@ -15077,34 +15070,34 @@
       <c r="H347" s="3"/>
       <c r="I347" s="5"/>
       <c r="J347" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="K347" s="1" t="s">
         <v>81</v>
       </c>
       <c r="L347" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="M347" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N347" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O347" s="5"/>
     </row>
     <row r="348" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>5</v>
@@ -15114,26 +15107,26 @@
       <c r="H348" s="3"/>
       <c r="I348" s="5"/>
       <c r="J348" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="K348" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L348" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="M348" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N348" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O348" s="5"/>
     </row>
     <row r="349" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5"/>
       <c r="B349" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>193</v>
@@ -15145,7 +15138,7 @@
         <v>5</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G349" s="6"/>
       <c r="H349" s="3"/>
@@ -15160,10 +15153,10 @@
     <row r="350" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5"/>
       <c r="B350" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D350" s="4">
         <v>515</v>
@@ -15172,7 +15165,7 @@
         <v>6</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G350" s="6"/>
       <c r="H350" s="3"/>
@@ -15187,7 +15180,7 @@
     <row r="351" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="5"/>
       <c r="B351" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>8</v>
@@ -15199,12 +15192,12 @@
         <v>5</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="G351" s="6"/>
       <c r="H351" s="3"/>
       <c r="I351" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J351" s="1"/>
       <c r="K351" s="5"/>
@@ -15216,7 +15209,7 @@
     <row r="352" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>94</v>
@@ -15228,21 +15221,21 @@
         <v>5</v>
       </c>
       <c r="F352" s="7" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="G352" s="9"/>
       <c r="H352" s="3"/>
       <c r="I352" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="K352" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L352" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="M352" s="1" t="s">
         <v>5</v>
@@ -15261,13 +15254,13 @@
       <c r="H353" s="3"/>
       <c r="I353" s="5"/>
       <c r="J353" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="K353" s="1" t="s">
         <v>122</v>
       </c>
       <c r="L353" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="M353" s="1" t="s">
         <v>5</v>
@@ -15277,16 +15270,16 @@
     </row>
     <row r="354" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>5</v>
@@ -15296,13 +15289,13 @@
       <c r="H354" s="3"/>
       <c r="I354" s="5"/>
       <c r="J354" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="K354" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L354" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="M354" s="1" t="s">
         <v>6</v>
@@ -15313,13 +15306,13 @@
     <row r="355" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>423</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>6</v>
@@ -15346,10 +15339,10 @@
     <row r="356" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D356" s="2">
         <v>461</v>
@@ -15358,7 +15351,7 @@
         <v>5</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G356" s="9"/>
       <c r="H356" s="3"/>
@@ -15381,7 +15374,7 @@
     <row r="357" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="5"/>
       <c r="B357" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>16</v>
@@ -15393,7 +15386,7 @@
         <v>6</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G357" s="6"/>
       <c r="H357" s="3"/>
@@ -15416,19 +15409,19 @@
     <row r="358" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F358" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G358" s="9"/>
       <c r="H358" s="3"/>
@@ -15451,19 +15444,19 @@
     <row r="359" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="5"/>
       <c r="B359" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G359" s="6"/>
       <c r="H359" s="3"/>
@@ -15486,19 +15479,19 @@
     <row r="360" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G360" s="9"/>
       <c r="H360" s="3"/>
@@ -15520,16 +15513,16 @@
       <c r="G361" s="6"/>
       <c r="H361" s="3"/>
       <c r="I361" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K361" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L361" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="M361" s="1" t="s">
         <v>5</v>
@@ -15539,16 +15532,16 @@
     </row>
     <row r="362" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>5</v>
@@ -15557,16 +15550,16 @@
       <c r="G362" s="6"/>
       <c r="H362" s="3"/>
       <c r="I362" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="K362" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="L362" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="M362" s="1" t="s">
         <v>6</v>
@@ -15577,13 +15570,13 @@
     <row r="363" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5"/>
       <c r="B363" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>6</v>
@@ -15610,13 +15603,13 @@
     <row r="364" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5"/>
       <c r="B364" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>5</v>
@@ -15643,10 +15636,10 @@
     <row r="365" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D365" s="4">
         <v>460</v>
@@ -15655,7 +15648,7 @@
         <v>5</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G365" s="9"/>
       <c r="H365" s="3"/>
@@ -15664,7 +15657,7 @@
         <v>581</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="L365" s="4">
         <v>581</v>
@@ -15678,13 +15671,13 @@
     <row r="366" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>5</v>
@@ -15706,20 +15699,20 @@
         <v>5</v>
       </c>
       <c r="N366" s="24" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="O366" s="5"/>
     </row>
     <row r="367" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>6</v>
@@ -15741,7 +15734,7 @@
         <v>5</v>
       </c>
       <c r="N367" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="O367" s="5"/>
     </row>
@@ -15751,7 +15744,7 @@
         <v>508</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D368" s="4">
         <v>508</v>
@@ -15788,13 +15781,13 @@
       <c r="G369" s="6"/>
       <c r="H369" s="3"/>
       <c r="I369" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J369" s="4">
         <v>675</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="L369" s="4">
         <v>675</v>
@@ -15803,10 +15796,10 @@
         <v>6</v>
       </c>
       <c r="N369" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="O369" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="370" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15840,10 +15833,10 @@
         <v>5</v>
       </c>
       <c r="N370" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="O370" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="371" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15877,7 +15870,7 @@
         <v>6</v>
       </c>
       <c r="N371" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="O371" s="1" t="s">
         <v>153</v>
@@ -15914,10 +15907,10 @@
         <v>5</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="O372" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="373" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
@@ -15935,7 +15928,7 @@
         <v>6</v>
       </c>
       <c r="F373" s="20" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G373" s="6"/>
       <c r="H373" s="3"/>
@@ -15953,7 +15946,7 @@
         <v>6</v>
       </c>
       <c r="N373" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="O373" s="1" t="s">
         <v>33</v>
@@ -15965,7 +15958,7 @@
         <v>558</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D374" s="4">
         <v>558</v>
@@ -15974,7 +15967,7 @@
         <v>6</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G374" s="25"/>
       <c r="H374" s="3"/>
